--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB306.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB306.xlsx
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
         <v>71.32283782958984</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.450580596923828e-09</v>
+        <v>-3.91155481338501e-08</v>
       </c>
       <c r="H2" t="n">
         <v>-5.960464477539062e-08</v>
@@ -524,13 +524,13 @@
         <v>-0.1771621704101562</v>
       </c>
       <c r="J2" t="n">
-        <v>-7.450580596923828e-09</v>
+        <v>-3.91155481338501e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.960464477539062e-08</v>
+        <v>0.0003959865716751665</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1771621704101664</v>
+        <v>0.1771626129571466</v>
       </c>
     </row>
     <row r="3">
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
         <v>-71.32283782958984</v>
       </c>
       <c r="G3" t="n">
-        <v>7.450580596923828e-09</v>
+        <v>3.91155481338501e-08</v>
       </c>
       <c r="H3" t="n">
         <v>5.960464477539062e-08</v>
@@ -562,13 +562,13 @@
         <v>0.1771621704101562</v>
       </c>
       <c r="J3" t="n">
-        <v>7.450580596923828e-09</v>
+        <v>3.91155481338501e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>5.960464477539062e-08</v>
+        <v>0.0003961057809647173</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1771621704101664</v>
+        <v>0.1771626132236384</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>317.3644714355469</v>
+        <v>317.3644409179688</v>
       </c>
       <c r="G4" t="n">
-        <v>390.3086853027344</v>
+        <v>390.3087463378906</v>
       </c>
       <c r="H4" t="n">
-        <v>115.617805480957</v>
+        <v>115.6178131103516</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.135528564453125</v>
+        <v>-4.13555908203125</v>
       </c>
       <c r="J4" t="n">
-        <v>4.459320068359375</v>
+        <v>4.459381103515625</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.270866394042969</v>
+        <v>-3.270462036132812</v>
       </c>
       <c r="L4" t="n">
-        <v>6.905555658103122</v>
+        <v>6.905421831948384</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-327.6584777832031</v>
+        <v>-327.6585388183594</v>
       </c>
       <c r="G5" t="n">
-        <v>388.442138671875</v>
+        <v>388.4421691894531</v>
       </c>
       <c r="H5" t="n">
-        <v>115.3961944580078</v>
+        <v>115.3962173461914</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.158477783203125</v>
+        <v>-6.158538818359375</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5927734375</v>
+        <v>2.592803955078125</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.492477416992188</v>
+        <v>-3.492057800292969</v>
       </c>
       <c r="L5" t="n">
-        <v>7.53967646604365</v>
+        <v>7.539542453444707</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>327.9362182617188</v>
+        <v>327.936279296875</v>
       </c>
       <c r="G6" t="n">
-        <v>-387.8243408203125</v>
+        <v>-387.8245239257812</v>
       </c>
       <c r="H6" t="n">
-        <v>115.0099487304688</v>
+        <v>115.0099639892578</v>
       </c>
       <c r="I6" t="n">
-        <v>6.43621826171875</v>
+        <v>6.436279296875</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.9749755859375</v>
+        <v>-1.97515869140625</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.87872314453125</v>
+        <v>-3.878311157226562</v>
       </c>
       <c r="L6" t="n">
-        <v>7.769808704817223</v>
+        <v>7.769700153537936</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
         <v>-318.3554077148438</v>
       </c>
       <c r="G7" t="n">
-        <v>-392.646240234375</v>
+        <v>-392.6463012695312</v>
       </c>
       <c r="H7" t="n">
-        <v>116.0939559936523</v>
+        <v>116.0939254760742</v>
       </c>
       <c r="I7" t="n">
         <v>3.14459228515625</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.796875</v>
+        <v>-6.79693603515625</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.794715881347656</v>
+        <v>-2.794349670410156</v>
       </c>
       <c r="L7" t="n">
-        <v>7.993522831827405</v>
+        <v>7.993446702542722</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
-        <v>177.8002319335938</v>
+        <v>177.8002014160156</v>
       </c>
       <c r="G8" t="n">
-        <v>2.233015537261963</v>
+        <v>2.23306131362915</v>
       </c>
       <c r="H8" t="n">
-        <v>120.6702346801758</v>
+        <v>120.6702423095703</v>
       </c>
       <c r="I8" t="n">
-        <v>4.531661987304688</v>
+        <v>4.531631469726562</v>
       </c>
       <c r="J8" t="n">
-        <v>2.233015537261963</v>
+        <v>2.23306131362915</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.408866882324219</v>
+        <v>-4.408462524414062</v>
       </c>
       <c r="L8" t="n">
-        <v>6.705253607649071</v>
+        <v>6.704982359186822</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
-        <v>-176.8183135986328</v>
+        <v>-176.8183288574219</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.649355173110962</v>
+        <v>-1.649347305297852</v>
       </c>
       <c r="H9" t="n">
-        <v>122.257453918457</v>
+        <v>122.2574615478516</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.54974365234375</v>
+        <v>-3.549758911132812</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.649355173110962</v>
+        <v>-1.649347305297852</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.821647644042969</v>
+        <v>-2.821243286132812</v>
       </c>
       <c r="L9" t="n">
-        <v>4.825219985819908</v>
+        <v>4.824992076699149</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-430.3815269703719</v>
+        <v>-430.3816033986932</v>
       </c>
       <c r="G10" t="n">
-        <v>382.122266246052</v>
+        <v>382.1223640173984</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.133318319042104</v>
+        <v>-8.133339655480029</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.112957876519829</v>
+        <v>-7.113034304841221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2856573593332428</v>
+        <v>0.285755130679604</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.007341756542104</v>
+        <v>-2.006966841301562</v>
       </c>
       <c r="L10" t="n">
-        <v>7.396295749065491</v>
+        <v>7.396271284819245</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-502.9450886342744</v>
+        <v>-502.9451497231984</v>
       </c>
       <c r="G11" t="n">
-        <v>382.122266246052</v>
+        <v>382.1223640173984</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.133318319042104</v>
+        <v>-8.133339655480029</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.176519540422419</v>
+        <v>-8.176580629346404</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2856573593332428</v>
+        <v>0.285755130679604</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.007341756542104</v>
+        <v>-2.006966841301562</v>
       </c>
       <c r="L11" t="n">
-        <v>8.424161254950455</v>
+        <v>8.42413453625929</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-502.9450886342744</v>
+        <v>-502.9451497231984</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.364260007692565</v>
+        <v>-3.364271165890906</v>
       </c>
       <c r="H12" t="n">
-        <v>120.1279183642739</v>
+        <v>120.127938124037</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.176534372992933</v>
+        <v>-8.176595461916918</v>
       </c>
       <c r="J12" t="n">
-        <v>-3.364252378298034</v>
+        <v>-3.364263536496375</v>
       </c>
       <c r="K12" t="n">
-        <v>-4.951183198226076</v>
+        <v>-4.950766709947402</v>
       </c>
       <c r="L12" t="n">
-        <v>10.13351486306776</v>
+        <v>10.13336437256467</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-423.4816978660022</v>
+        <v>-423.4817509996568</v>
       </c>
       <c r="G13" t="n">
-        <v>-390.7817007921133</v>
+        <v>-390.7817973166199</v>
       </c>
       <c r="H13" t="n">
-        <v>-5.452906135024506</v>
+        <v>-5.452928036183479</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.213128772150128</v>
+        <v>-0.2131819058047881</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.94509190539452</v>
+        <v>-8.945188429901179</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6730704274754942</v>
+        <v>0.6734447779949875</v>
       </c>
       <c r="L13" t="n">
-        <v>8.972910167265402</v>
+        <v>8.973035742735522</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-502.9450886342744</v>
+        <v>-502.9451497231984</v>
       </c>
       <c r="G14" t="n">
-        <v>-390.7817007921133</v>
+        <v>-390.7817973166199</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.452906135024506</v>
+        <v>-5.452928036183479</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.176519540422419</v>
+        <v>-8.176580629346404</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.94509190539452</v>
+        <v>-8.945188429901179</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6730704274754942</v>
+        <v>0.6734447779949875</v>
       </c>
       <c r="L14" t="n">
-        <v>12.13767542782415</v>
+        <v>12.13780848026733</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>503.1871069404435</v>
+        <v>503.1871221643107</v>
       </c>
       <c r="G15" t="n">
-        <v>391.4309176825209</v>
+        <v>391.431068212491</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.887168642520663</v>
+        <v>-8.887196065851157</v>
       </c>
       <c r="I15" t="n">
-        <v>8.418537846591505</v>
+        <v>8.418553070458699</v>
       </c>
       <c r="J15" t="n">
-        <v>9.594308795802192</v>
+        <v>9.594459325772277</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.761192080020663</v>
+        <v>-2.76082325167269</v>
       </c>
       <c r="L15" t="n">
-        <v>13.05935382959163</v>
+        <v>13.05939625637436</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>423.3945873446021</v>
+        <v>423.3945912686113</v>
       </c>
       <c r="G16" t="n">
-        <v>391.4309176825209</v>
+        <v>391.431068212491</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.887168642520663</v>
+        <v>-8.887196065851157</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1260182507500645</v>
+        <v>0.1260221747592709</v>
       </c>
       <c r="J16" t="n">
-        <v>9.594308795802192</v>
+        <v>9.594459325772277</v>
       </c>
       <c r="K16" t="n">
-        <v>-2.761192080020663</v>
+        <v>-2.76082325167269</v>
       </c>
       <c r="L16" t="n">
-        <v>9.984529211309779</v>
+        <v>9.984571917183342</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>503.1871069404435</v>
+        <v>503.1871221643107</v>
       </c>
       <c r="G17" t="n">
-        <v>8.823891668570003</v>
+        <v>8.823901994241472</v>
       </c>
       <c r="H17" t="n">
-        <v>119.4525125241045</v>
+        <v>119.4525165100649</v>
       </c>
       <c r="I17" t="n">
-        <v>8.418552679162019</v>
+        <v>8.418567903029214</v>
       </c>
       <c r="J17" t="n">
-        <v>8.823899297964534</v>
+        <v>8.823909623636004</v>
       </c>
       <c r="K17" t="n">
-        <v>-5.626589038395522</v>
+        <v>-5.626188323919507</v>
       </c>
       <c r="L17" t="n">
-        <v>13.43099892932159</v>
+        <v>13.43084739099577</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>503.1871069404435</v>
+        <v>503.1871221643107</v>
       </c>
       <c r="G18" t="n">
-        <v>-379.9098853192493</v>
+        <v>-379.9099285136609</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.151325171235698</v>
+        <v>-3.151352475130295</v>
       </c>
       <c r="I18" t="n">
-        <v>8.418537846591505</v>
+        <v>8.418553070458699</v>
       </c>
       <c r="J18" t="n">
-        <v>1.926723567469423</v>
+        <v>1.926680373057877</v>
       </c>
       <c r="K18" t="n">
-        <v>2.974651391264302</v>
+        <v>2.975020339048172</v>
       </c>
       <c r="L18" t="n">
-        <v>9.134144408727414</v>
+        <v>9.134269487912338</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0524913025999</v>
+        <v>437.0525198116447</v>
       </c>
       <c r="G19" t="n">
-        <v>-379.9098853192493</v>
+        <v>-379.9099285136609</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.151325171235698</v>
+        <v>-3.151352475130295</v>
       </c>
       <c r="I19" t="n">
-        <v>13.78392220874792</v>
+        <v>13.78395071779272</v>
       </c>
       <c r="J19" t="n">
-        <v>1.926723567469423</v>
+        <v>1.926680373057877</v>
       </c>
       <c r="K19" t="n">
-        <v>2.974651391264302</v>
+        <v>2.975020339048172</v>
       </c>
       <c r="L19" t="n">
-        <v>14.23226356072031</v>
+        <v>14.2323624415701</v>
       </c>
     </row>
   </sheetData>
